--- a/analysis/thalamus/figures_tables/choroid_associations/choroid_vs_inflammatory_markers.xlsx
+++ b/analysis/thalamus/figures_tables/choroid_associations/choroid_vs_inflammatory_markers.xlsx
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6201125115514359</v>
+        <v>0.6201125115514354</v>
       </c>
       <c r="C2" t="n">
-        <v>1.869061615390197e-53</v>
+        <v>1.869061615390251e-53</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03268177441007029</v>
+        <v>0.03268177441007027</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5508902603536324</v>
+        <v>0.550890260353632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6893347627492393</v>
+        <v>0.6893347627492389</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.308343130773138e-52</v>
+        <v>1.308343130773175e-52</v>
       </c>
       <c r="I2" t="n">
         <v>0.5505998127443985</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6201125115514359</v>
+        <v>0.6201125115514354</v>
       </c>
     </row>
     <row r="3">
@@ -523,19 +523,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4233475868868328</v>
+        <v>-0.423347586886833</v>
       </c>
       <c r="C3" t="n">
-        <v>3.496055685379108e-24</v>
+        <v>3.496055685378957e-24</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04654206149278175</v>
+        <v>0.04654206149278176</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5007941824296606</v>
+        <v>-0.5007941824296608</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3459009913440051</v>
+        <v>-0.3459009913440054</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.223619489882688e-23</v>
+        <v>1.223619489882635e-23</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4305582158086486</v>
+        <v>0.4305582158086487</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.4233475868868328</v>
+        <v>-0.423347586886833</v>
       </c>
     </row>
     <row r="4">
@@ -562,10 +562,10 @@
         <v>0.3356835318569558</v>
       </c>
       <c r="C4" t="n">
-        <v>1.053844257998587e-12</v>
+        <v>1.053844257998618e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05026732138519823</v>
+        <v>0.05026732138519824</v>
       </c>
       <c r="E4" t="n">
         <v>0.2456546730942948</v>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.844227451497528e-12</v>
+        <v>1.844227451497581e-12</v>
       </c>
       <c r="I4" t="n">
         <v>0.1873127704808789</v>
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3258291789508148</v>
+        <v>-0.3258291789508149</v>
       </c>
       <c r="C5" t="n">
-        <v>1.913384580349316e-13</v>
+        <v>1.913384580349337e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04545572683665413</v>
+        <v>0.04545572683665414</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4103094021148032</v>
+        <v>-0.4103094021148033</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2413489557868264</v>
+        <v>-0.2413489557868265</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4.464564020815072e-13</v>
+        <v>4.46456402081512e-13</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3242961455851577</v>
+        <v>0.3242961455851575</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3258291789508148</v>
+        <v>-0.3258291789508149</v>
       </c>
     </row>
     <row r="6">
@@ -631,19 +631,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2970215595881925</v>
+        <v>-0.2970215595881927</v>
       </c>
       <c r="C6" t="n">
-        <v>4.109654680414936e-11</v>
+        <v>4.109654680414861e-11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04399774389128884</v>
+        <v>0.04399774389128885</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.38333638840999</v>
+        <v>-0.3833363884099902</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2107067307663951</v>
+        <v>-0.2107067307663952</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.75351655258091e-11</v>
+        <v>5.753516552580805e-11</v>
       </c>
       <c r="I6" t="n">
         <v>0.3059138586015786</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2970215595881925</v>
+        <v>-0.2970215595881927</v>
       </c>
     </row>
     <row r="7">
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2871844930824546</v>
+        <v>-0.2871844930824548</v>
       </c>
       <c r="C7" t="n">
-        <v>2.694354429307797e-09</v>
+        <v>2.694354429307778e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04498696847010126</v>
+        <v>0.04498696847010127</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3801863776683774</v>
+        <v>-0.3801863776683776</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1941826084965318</v>
+        <v>-0.1941826084965319</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3.143413500859097e-09</v>
+        <v>3.143413500859074e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1883902324396521</v>
+        <v>0.1883902324396519</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2871844930824546</v>
+        <v>-0.2871844930824548</v>
       </c>
     </row>
     <row r="8">
@@ -706,16 +706,16 @@
         <v>-0.2408964730868079</v>
       </c>
       <c r="C8" t="n">
-        <v>2.062966332430346e-08</v>
+        <v>2.062966332430323e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04507484847057262</v>
+        <v>0.04507484847057263</v>
       </c>
       <c r="E8" t="n">
         <v>-0.323854547206201</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1579383989674148</v>
+        <v>-0.1579383989674149</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2.062966332430346e-08</v>
+        <v>2.062966332430323e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3580581562690732</v>
+        <v>0.3580581562690733</v>
       </c>
       <c r="J8" t="n">
         <v>-0.2408964730868079</v>

--- a/analysis/thalamus/figures_tables/choroid_associations/choroid_vs_inflammatory_markers.xlsx
+++ b/analysis/thalamus/figures_tables/choroid_associations/choroid_vs_inflammatory_markers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6201125115514354</v>
+        <v>0.6201125115514359</v>
       </c>
       <c r="C2" t="n">
-        <v>1.869061615390251e-53</v>
+        <v>1.869061615390197e-53</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03268177441007027</v>
+        <v>0.03268177441007029</v>
       </c>
       <c r="E2" t="n">
-        <v>0.550890260353632</v>
+        <v>0.5508902603536324</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6893347627492389</v>
+        <v>0.6893347627492393</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.308343130773175e-52</v>
+        <v>1.869061615390197e-52</v>
       </c>
       <c r="I2" t="n">
         <v>0.5505998127443985</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6201125115514354</v>
+        <v>0.6201125115514359</v>
       </c>
     </row>
     <row r="3">
@@ -523,19 +523,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.423347586886833</v>
+        <v>-0.4233475868868328</v>
       </c>
       <c r="C3" t="n">
-        <v>3.496055685378957e-24</v>
+        <v>3.496055685379108e-24</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04654206149278176</v>
+        <v>0.04654206149278175</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5007941824296608</v>
+        <v>-0.5007941824296606</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3459009913440054</v>
+        <v>-0.3459009913440051</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.223619489882635e-23</v>
+        <v>1.748027842689554e-23</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4305582158086487</v>
+        <v>0.4305582158086486</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.423347586886833</v>
+        <v>-0.4233475868868328</v>
       </c>
     </row>
     <row r="4">
@@ -562,10 +562,10 @@
         <v>0.3356835318569558</v>
       </c>
       <c r="C4" t="n">
-        <v>1.053844257998618e-12</v>
+        <v>1.053844257998587e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05026732138519824</v>
+        <v>0.05026732138519823</v>
       </c>
       <c r="E4" t="n">
         <v>0.2456546730942948</v>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.844227451497581e-12</v>
+        <v>2.634610644996468e-12</v>
       </c>
       <c r="I4" t="n">
         <v>0.1873127704808789</v>
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3258291789508149</v>
+        <v>-0.3258291789508148</v>
       </c>
       <c r="C5" t="n">
-        <v>1.913384580349337e-13</v>
+        <v>1.913384580349316e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04545572683665414</v>
+        <v>0.04545572683665413</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4103094021148033</v>
+        <v>-0.4103094021148032</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2413489557868265</v>
+        <v>-0.2413489557868264</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4.46456402081512e-13</v>
+        <v>6.377948601164388e-13</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3242961455851575</v>
+        <v>0.3242961455851577</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3258291789508149</v>
+        <v>-0.3258291789508148</v>
       </c>
     </row>
     <row r="6">
@@ -631,19 +631,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2970215595881927</v>
+        <v>-0.2970215595881925</v>
       </c>
       <c r="C6" t="n">
-        <v>4.109654680414861e-11</v>
+        <v>4.109654680414936e-11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04399774389128885</v>
+        <v>0.04399774389128884</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3833363884099902</v>
+        <v>-0.38333638840999</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2107067307663952</v>
+        <v>-0.2107067307663951</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.753516552580805e-11</v>
+        <v>8.219309360829872e-11</v>
       </c>
       <c r="I6" t="n">
         <v>0.3059138586015786</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2970215595881927</v>
+        <v>-0.2970215595881925</v>
       </c>
     </row>
     <row r="7">
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2871844930824548</v>
+        <v>-0.2871844930824546</v>
       </c>
       <c r="C7" t="n">
-        <v>2.694354429307778e-09</v>
+        <v>2.694354429307797e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04498696847010127</v>
+        <v>0.04498696847010126</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3801863776683776</v>
+        <v>-0.3801863776683774</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1941826084965319</v>
+        <v>-0.1941826084965318</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -687,49 +687,157 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3.143413500859074e-09</v>
+        <v>4.490590715512996e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1883902324396519</v>
+        <v>0.1883902324396521</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2871844930824548</v>
+        <v>-0.2871844930824546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>PRL</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2439369476278655</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.000724657415101e-06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06791651781804513</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1401599236496128</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3477139716061183</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[0.140160, 0.347714]</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6.250905821768876e-06</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1016048254149843</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2439369476278655</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>grey</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>-0.2408964730868079</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.062966332430323e-08</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04507484847057263</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="C9" t="n">
+        <v>2.062966332430346e-08</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.04507484847057262</v>
+      </c>
+      <c r="E9" t="n">
         <v>-0.323854547206201</v>
       </c>
-      <c r="F8" t="n">
-        <v>-0.1579383989674149</v>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="F9" t="n">
+        <v>-0.1579383989674148</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>[-0.323855, -0.157938]</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>2.062966332430323e-08</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.3580581562690733</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H9" t="n">
+        <v>2.947094760614779e-08</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3580581562690732</v>
+      </c>
+      <c r="J9" t="n">
         <v>-0.2408964730868079</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>SDMT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.157168623918052</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001236063450153133</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05475830490127844</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.2521752772790968</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.06216197055700722</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[-0.252175, -0.062162]</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001373403833503481</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1743528889683816</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.157168623918052</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>EDSS_sqrt</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.07138623338102845</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1293489863194933</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.04388382679160128</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.02094413429029085</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1637166010523478</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[-0.020944, 0.163717]</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1293489863194933</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2164628697485647</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
